--- a/PowerAppsChallenges/Challenge01/Challenge01.xlsx
+++ b/PowerAppsChallenges/Challenge01/Challenge01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -103,6 +103,18 @@
   </x:si>
   <x:si>
     <x:t>wSo6sODCTPI</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conforme solicitado pelo Rodrigo será necessário a atribuição do </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ioYlpgCwO1c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Como ganhar uma task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MJI-r0cCF8A</x:t>
   </x:si>
   <x:si>
     <x:t>STATUS</x:t>
@@ -132,15 +144,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="5">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="6">
     <x:numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <x:numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <x:numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <x:numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <x:numFmt numFmtId="4" formatCode=""/>
+    <x:numFmt numFmtId="5" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="22">
+  <x:fonts count="23">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -298,6 +311,13 @@
       <x:name val="Calibri"/>
       <x:charset val="134"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -608,7 +628,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="51">
+  <x:cellStyleXfs count="52">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
@@ -753,6 +773,9 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -836,7 +859,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Usuario" displayName="Usuario" ref="A1:G2" totalsRowShown="0">
   <x:autoFilter ref="A1:G2"/>
   <x:tableColumns count="7">
@@ -852,9 +875,9 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="A1:I4" totalsRowShown="0">
-  <x:autoFilter ref="A1:I4"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="A1:I6" totalsRowShown="0">
+  <x:autoFilter ref="A1:I6"/>
   <x:tableColumns count="9">
     <x:tableColumn id="1" name="ID"/>
     <x:tableColumn id="2" name="UsuarioID"/>
@@ -870,7 +893,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Status" displayName="Status" ref="A1:C4" totalsRowShown="0">
   <x:autoFilter ref="A1:C4"/>
   <x:tableColumns count="3">
@@ -1145,10 +1168,10 @@
   <x:dimension ref="A1:G4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="G1" sqref="G1 G1:G1048576"/>
+      <x:selection activeCell="G1" sqref="G1 G1:G1 G1:G1048576"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="13.272529761904801" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="13.983154761904801" defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.14285714285714" style="3" customWidth="1"/>
     <x:col min="2" max="3" width="14" style="3" customWidth="1"/>
@@ -1226,10 +1249,10 @@
   <x:dimension ref="A1:I4"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <x:selection activeCell="I1" sqref="I1 I1:I1048576"/>
+      <x:selection activeCell="I1" sqref="I1 I1:I1 I1:I1048576"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="13.272529761904801" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="13.983154761904801" defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.14285714285714" style="3" customWidth="1"/>
     <x:col min="2" max="3" width="11.7142857142857" style="3" customWidth="1"/>
@@ -1358,6 +1381,38 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="J4" s="3" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="3" t="s"/>
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="C5" s="3" t="s"/>
+      <x:c r="D5" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
+      <x:c r="G5" s="3" t="s"/>
+      <x:c r="H5" s="3" t="s"/>
+      <x:c r="I5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="3" t="s"/>
+      <x:c r="B6" s="3" t="s"/>
+      <x:c r="C6" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D6" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
+      <x:c r="G6" s="3" t="s"/>
+      <x:c r="H6" s="3" t="s"/>
+      <x:c r="I6" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1378,10 +1433,10 @@
   <x:dimension ref="A1:E5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C1" sqref="C1 C1:C1048576"/>
+      <x:selection activeCell="C1" sqref="C1 C1:C1 C1:C1048576"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="12.558244047619" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="13.268869047619" defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.14285714285714" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="9.71428571428571" style="3" customWidth="1"/>
@@ -1392,7 +1447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
         <x:v>6</x:v>
@@ -1406,10 +1461,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s"/>
       <x:c r="E2" s="3" t="s"/>
@@ -1420,10 +1475,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s"/>
       <x:c r="E3" s="3" t="s"/>
@@ -1434,10 +1489,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s"/>
       <x:c r="E4" s="3" t="s"/>
@@ -1468,7 +1523,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.85348214285714" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="10.564107142857141" defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="3" t="s">
@@ -1491,7 +1546,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
